--- a/backend-bulljs/uploads/s1.xlsx
+++ b/backend-bulljs/uploads/s1.xlsx
@@ -53,13 +53,13 @@
     <t>1996/11/13</t>
   </si>
   <si>
-    <t>m5@gmail.com</t>
-  </si>
-  <si>
-    <t>r5@gmail.com</t>
-  </si>
-  <si>
-    <t>s5@gmail.com</t>
+    <t>m6@gmail.com</t>
+  </si>
+  <si>
+    <t>s6@gmail.com</t>
+  </si>
+  <si>
+    <t>r6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -439,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>

--- a/backend-bulljs/uploads/s1.xlsx
+++ b/backend-bulljs/uploads/s1.xlsx
@@ -53,13 +53,13 @@
     <t>1996/11/13</t>
   </si>
   <si>
-    <t>m6@gmail.com</t>
-  </si>
-  <si>
-    <t>s6@gmail.com</t>
-  </si>
-  <si>
-    <t>r6@gmail.com</t>
+    <t>r9@gmail.com</t>
+  </si>
+  <si>
+    <t>s9@gmail.com</t>
+  </si>
+  <si>
+    <t>m9@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -439,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
